--- a/_content/john-abbott-college/computerized-systems/lectures/14-finishing-up-excel/excels/2024-10-24-demos.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/14-finishing-up-excel/excels/2024-10-24-demos.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/14-finishing-up-excel/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ACE9F1-2F1A-7244-8DB8-5BB2D71E68A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989F1FF-6598-6649-8F95-2690D1FC0FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="-2540" windowWidth="29400" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33740" yWindow="-2980" windowWidth="29400" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Solutions" sheetId="2" r:id="rId1"/>
+    <sheet name="Demo 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Demo 1 Solutions" sheetId="2" r:id="rId2"/>
+    <sheet name="Demo 2" sheetId="5" r:id="rId3"/>
+    <sheet name="Demo 2 Solutions" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="allGrades">#REF!</definedName>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="95">
   <si>
     <t>Student name</t>
   </si>
@@ -228,6 +231,99 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Hire Date</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Bob Smith</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Charlie Lee</t>
+  </si>
+  <si>
+    <t>David Wilson</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Eva Green</t>
+  </si>
+  <si>
+    <t>Frank White</t>
+  </si>
+  <si>
+    <t>Grace Adams</t>
+  </si>
+  <si>
+    <t>Hannah Brown</t>
+  </si>
+  <si>
+    <t>Ian Clark</t>
+  </si>
+  <si>
+    <t>Jenny Evans</t>
+  </si>
+  <si>
+    <t>Kurt Miles</t>
+  </si>
+  <si>
+    <t>Lily Perry</t>
+  </si>
+  <si>
+    <t>Mason Gray</t>
+  </si>
+  <si>
+    <t>Nina Parker</t>
+  </si>
+  <si>
+    <t>Oscar Reed</t>
+  </si>
+  <si>
+    <t>Paula Foster</t>
+  </si>
+  <si>
+    <t>Quincy Stone</t>
+  </si>
+  <si>
+    <t>Rachel Black</t>
+  </si>
+  <si>
+    <t>Sam Harris</t>
+  </si>
+  <si>
+    <t>Tina Brooks</t>
+  </si>
+  <si>
+    <t>Is Senior?</t>
+  </si>
+  <si>
+    <t>Lily Adams</t>
+  </si>
+  <si>
+    <t>Paula Adams</t>
+  </si>
+  <si>
+    <t>Members from the Adams Family</t>
   </si>
 </sst>
 </file>
@@ -238,7 +334,7 @@
     <numFmt numFmtId="164" formatCode="m\-d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -290,8 +386,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +421,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -328,11 +445,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -402,11 +636,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -453,6 +745,336 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Grade Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4285F4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Demo 1'!$A$38:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80-89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Demo 1'!$B$38:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1FF-044D-9516-BE5A5BECDA54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="227347726"/>
+        <c:axId val="852301793"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="227347726"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852301793"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="852301793"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227347726"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -510,7 +1132,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Solutions!$A$38:$A$47</c:f>
+              <c:f>'Demo 1 Solutions'!$A$38:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -548,7 +1170,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Solutions!$B$38:$B$47</c:f>
+              <c:f>'Demo 1 Solutions'!$B$38:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="10"/>
@@ -790,6 +1412,44 @@
         <xdr:cNvPr id="2" name="Chart 2" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7F913B-63EC-D74F-858A-0C741DDF35F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -1008,15 +1668,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECC7D94-2E6A-9046-A108-C79C632F40CF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1079,12 +1739,9 @@
         <f t="shared" ref="D2:D32" si="0">(B$50 - H2*B$51)* (1 - B$52 * G2)</f>
         <v>20</v>
       </c>
-      <c r="E2" s="25" t="str">
-        <f t="shared" ref="E2:E32" si="1">IF(I2="yes", "Please refer back to the original assignment link for detailed feedback", IF(I2="no", "missing submission :( Even if your work is incomplete, I give partial marks!!", "Please refer back to the original assignment link for detailed feedback"))</f>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E2" s="25"/>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F32" si="2">ROUND(D2/$B$50, 2)</f>
+        <f t="shared" ref="F2:F32" si="1">ROUND(D2/$B$50, 2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -1092,10 +1749,6 @@
       </c>
       <c r="I2" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J2" t="str">
-        <f>IF(F2&gt;=0.6, "PASS", "FAIL")</f>
-        <v>PASS</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1124,12 +1777,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E3" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E3" s="25"/>
       <c r="F3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -1138,10 +1788,6 @@
       <c r="H3" s="1"/>
       <c r="I3" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" t="str">
-        <f>IF(F3&gt;=0.6, "PASS", "FAIL")</f>
-        <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
@@ -1156,12 +1802,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E4" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E4" s="25"/>
       <c r="F4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G4" s="1">
@@ -1169,10 +1812,6 @@
       </c>
       <c r="I4" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J32" si="3">IF(F4&gt;=0.6, "PASS", "FAIL")</f>
-        <v>PASS</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1201,12 +1840,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E5" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E5" s="25"/>
       <c r="F5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G5" s="1">
@@ -1214,10 +1850,6 @@
       </c>
       <c r="I5" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
@@ -1232,12 +1864,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E6" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E6" s="25"/>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -1245,10 +1874,6 @@
       </c>
       <c r="I6" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1277,12 +1902,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E7" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E7" s="25"/>
       <c r="F7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7" s="1">
@@ -1290,10 +1912,6 @@
       </c>
       <c r="I7" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1">
@@ -1308,12 +1926,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E8" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E8" s="25"/>
       <c r="F8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -1321,10 +1936,6 @@
       </c>
       <c r="I8" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1353,12 +1964,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E9" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G9" s="1">
@@ -1366,10 +1974,6 @@
       </c>
       <c r="I9" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1">
@@ -1384,12 +1988,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E10" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E10" s="25"/>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G10" s="1">
@@ -1397,10 +1998,6 @@
       </c>
       <c r="I10" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1429,12 +2026,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E11" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E11" s="25"/>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G11" s="1">
@@ -1442,10 +2036,6 @@
       </c>
       <c r="I11" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1">
@@ -1460,12 +2050,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E12" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E12" s="25"/>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -1473,10 +2060,6 @@
       </c>
       <c r="I12" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1505,12 +2088,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E13" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E13" s="25"/>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G13" s="1">
@@ -1518,10 +2098,6 @@
       </c>
       <c r="I13" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
@@ -1536,12 +2112,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E14" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E14" s="25"/>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G14" s="1">
@@ -1549,10 +2122,6 @@
       </c>
       <c r="I14" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1581,12 +2150,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E15" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E15" s="25"/>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G15" s="1">
@@ -1594,10 +2160,6 @@
       </c>
       <c r="I15" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
@@ -1612,12 +2174,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E16" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E16" s="25"/>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G16" s="1">
@@ -1625,10 +2184,6 @@
       </c>
       <c r="I16" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1657,12 +2212,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E17" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E17" s="25"/>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17" s="1">
@@ -1670,10 +2222,6 @@
       </c>
       <c r="I17" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
@@ -1702,12 +2250,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E18" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E18" s="25"/>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -1715,10 +2260,6 @@
       </c>
       <c r="I18" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1747,12 +2288,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E19" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E19" s="25"/>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G19" s="1">
@@ -1760,10 +2298,6 @@
       </c>
       <c r="I19" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
@@ -1778,12 +2312,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E20" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E20" s="25"/>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G20" s="1">
@@ -1791,10 +2322,6 @@
       </c>
       <c r="I20" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1823,12 +2350,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E21" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E21" s="25"/>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G21" s="1">
@@ -1836,10 +2360,6 @@
       </c>
       <c r="I21" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1">
@@ -1854,12 +2374,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E22" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E22" s="25"/>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -1867,10 +2384,6 @@
       </c>
       <c r="I22" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1899,12 +2412,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E23" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E23" s="25"/>
       <c r="F23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G23" s="1">
@@ -1912,10 +2422,6 @@
       </c>
       <c r="I23" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" customHeight="1">
@@ -1930,12 +2436,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E24" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E24" s="25"/>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -1943,10 +2446,6 @@
       </c>
       <c r="I24" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1975,12 +2474,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E25" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E25" s="25"/>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G25" s="1">
@@ -1988,10 +2484,6 @@
       </c>
       <c r="I25" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2020,12 +2512,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E26" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E26" s="25"/>
       <c r="F26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26" s="1">
@@ -2033,10 +2522,6 @@
       </c>
       <c r="I26" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
@@ -2051,12 +2536,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E27" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E27" s="25"/>
       <c r="F27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G27" s="1">
@@ -2064,10 +2546,6 @@
       </c>
       <c r="I27" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2096,12 +2574,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E28" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E28" s="25"/>
       <c r="F28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -2109,10 +2584,6 @@
       </c>
       <c r="I28" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1">
@@ -2127,12 +2598,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E29" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E29" s="25"/>
       <c r="F29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G29" s="1">
@@ -2140,10 +2608,6 @@
       </c>
       <c r="I29" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2172,12 +2636,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E30" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E30" s="25"/>
       <c r="F30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G30" s="1">
@@ -2185,10 +2646,6 @@
       </c>
       <c r="I30" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1">
@@ -2203,12 +2660,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E31" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Please refer back to the original assignment link for detailed feedback</v>
-      </c>
+      <c r="E31" s="25"/>
       <c r="F31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G31" s="1">
@@ -2216,10 +2670,6 @@
       </c>
       <c r="I31" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v>PASS</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2248,12 +2698,1483 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="12">
+        <f>COUNTIF(F2:F32, "&gt;=0.00%") - COUNTIF(F2:F32, "&gt;=10.00%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39" s="13">
+        <v>45584</v>
+      </c>
+      <c r="B39" s="12">
+        <f>COUNTIFS(F2:F32, "&gt;=10.00%", F2:F32, "&lt;20.00%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="12">
+        <f>COUNTIFS(F2:F32, "&gt;=20.00%", F2:F32, "&lt;30.00%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="12">
+        <f>COUNTIFS(F2:F32, "&gt;=30.00%", F2:F32, "&lt;40.00%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="12">
+        <f>COUNTIFS(F2:F32, "&gt;=40.00%", F2:F32, "&lt;50.00%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="12">
+        <f>COUNTIF(F2:F32, "&gt;=50.00%") - COUNTIF(F2:F32, "&gt;=60.00%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="12">
+        <f>COUNTIF(F2:F32, "&gt;=60.00%") - COUNTIF(F2:F32, "&gt;=70.00%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="12">
+        <f>COUNTIF(F2:F32, "&gt;=70.00%") - COUNTIF(F2:F32, "&gt;=80.00%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="12">
+        <f>COUNTIF(F2:F32, "&gt;=80.00%") - COUNTIF(F2:F32, "&gt;=90.00%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="12">
+        <f>SUMPRODUCT((F2:F32 &gt;= 0.9) * (H2:H32 &lt;&gt; ""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" ht="13">
+      <c r="A56" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="15">
+        <f>AVERAGE(F2:F32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="13">
+      <c r="A57" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="15">
+        <f>MEDIAN(F2:F32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="13">
+      <c r="A58" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="16">
+        <f>_xlfn.STDEV.S(F2:F32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="13">
+      <c r="A59" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="15">
+        <f>MAX(F2:F32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="13">
+      <c r="A60" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="1">
+        <f>MIN(F2:F32)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
+      <formula>LEN(TRIM(A34))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:X32">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND($H2&lt;&gt;"", ISNUMBER($H2), $F2&gt;=0.6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$F2&lt;0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
+      <formula>LEN(TRIM(H19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I32" xr:uid="{5406B66C-8FB8-F644-AEED-6AE576C5DF1D}">
+      <formula1>"-,yes ,almost,partially,barely,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:X60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1846988</v>
+      </c>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D32" si="0">(B$50 - H2*B$51)* (1 - B$52 * G2)</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="25" t="str">
+        <f>IF(I2="no", "missing submission :( Even if your work is incomplete, I give partial marks!!", "Please refer back to the original assignment link for detailed feedback")</f>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F32" si="1">ROUND(D2/$B$50, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(F2&gt;=0.6, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6312080</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E3" s="25" t="str">
+        <f t="shared" ref="E3:E32" si="2">IF(I3="no", "missing submission :( Even if your work is incomplete, I give partial marks!!", "Please refer back to the original assignment link for detailed feedback")</f>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(F3&gt;=0.6, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2493149</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J32" si="3">IF(F4&gt;=0.6, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2469894</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2242427</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6293928</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E7" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2388668</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6234623</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2489556</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2478328</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E11" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6317630</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2464393</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2486630</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E14" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2491280</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E15" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2475301</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2482528</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E17" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2364635</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E18" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6326417</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E19" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6293550</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E20" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1834170</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6316010</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E22" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2272798</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E23" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2236269</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E24" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6330316</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6299772</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E26" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2277169</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6260750</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E28" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4">
+        <v>6231195</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E29" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2464518</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E30" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4">
+        <v>6294252</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E31" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Please refer back to the original assignment link for detailed feedback</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="6">
+        <v>6242191</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E32" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Please refer back to the original assignment link for detailed feedback</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -2483,4 +4404,776 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA347168-7FA2-574E-914F-479B7433AFD0}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="38">
+        <v>43266</v>
+      </c>
+      <c r="D2" s="39">
+        <v>75000</v>
+      </c>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="38">
+        <v>44063</v>
+      </c>
+      <c r="D3" s="39">
+        <v>62000</v>
+      </c>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="38">
+        <v>43809</v>
+      </c>
+      <c r="D4" s="39">
+        <v>59000</v>
+      </c>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="38">
+        <v>44252</v>
+      </c>
+      <c r="D5" s="39">
+        <v>55000</v>
+      </c>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="38">
+        <v>43069</v>
+      </c>
+      <c r="D6" s="39">
+        <v>80000</v>
+      </c>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="38">
+        <v>43538</v>
+      </c>
+      <c r="D7" s="39">
+        <v>63000</v>
+      </c>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="38">
+        <v>43956</v>
+      </c>
+      <c r="D8" s="39">
+        <v>54000</v>
+      </c>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="38">
+        <v>42573</v>
+      </c>
+      <c r="D9" s="39">
+        <v>82000</v>
+      </c>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="38">
+        <v>44457</v>
+      </c>
+      <c r="D10" s="39">
+        <v>61000</v>
+      </c>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="38">
+        <v>43891</v>
+      </c>
+      <c r="D11" s="39">
+        <v>57000</v>
+      </c>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="38">
+        <v>43657</v>
+      </c>
+      <c r="D12" s="39">
+        <v>77000</v>
+      </c>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="38">
+        <v>44205</v>
+      </c>
+      <c r="D13" s="39">
+        <v>64000</v>
+      </c>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="38">
+        <v>43424</v>
+      </c>
+      <c r="D14" s="39">
+        <v>52000</v>
+      </c>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="38">
+        <v>42811</v>
+      </c>
+      <c r="D15" s="39">
+        <v>81000</v>
+      </c>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="38">
+        <v>43733</v>
+      </c>
+      <c r="D16" s="39">
+        <v>60000</v>
+      </c>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="38">
+        <v>43933</v>
+      </c>
+      <c r="D17" s="39">
+        <v>53000</v>
+      </c>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="38">
+        <v>43401</v>
+      </c>
+      <c r="D18" s="39">
+        <v>83000</v>
+      </c>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="38">
+        <v>44352</v>
+      </c>
+      <c r="D19" s="39">
+        <v>61500</v>
+      </c>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="38">
+        <v>43523</v>
+      </c>
+      <c r="D20" s="39">
+        <v>56500</v>
+      </c>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" ht="14" thickBot="1">
+      <c r="A21" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="37">
+        <v>43100</v>
+      </c>
+      <c r="D21" s="41">
+        <v>79000</v>
+      </c>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5" ht="14" thickBot="1"/>
+    <row r="23" spans="1:5" ht="14" thickBot="1">
+      <c r="D23" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="44"/>
+    </row>
+    <row r="24" spans="1:5" ht="14" thickBot="1"/>
+    <row r="25" spans="1:5" ht="14" thickBot="1">
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3FF0C-782C-1549-8263-1E45CBFA4BD4}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="38">
+        <v>43266</v>
+      </c>
+      <c r="D2" s="39">
+        <v>75000</v>
+      </c>
+      <c r="E2" s="40" t="str">
+        <f>IF(AND(C2&lt;=DATE(2018,1,1), B2="Manager"), "senior", "baby")</f>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="38">
+        <v>44063</v>
+      </c>
+      <c r="D3" s="39">
+        <v>62000</v>
+      </c>
+      <c r="E3" s="40" t="str">
+        <f t="shared" ref="E3:E21" si="0">IF(AND(C3&lt;=DATE(2018,1,1), B3="Manager"), "senior", "baby")</f>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="38">
+        <v>43809</v>
+      </c>
+      <c r="D4" s="39">
+        <v>59000</v>
+      </c>
+      <c r="E4" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="38">
+        <v>44252</v>
+      </c>
+      <c r="D5" s="39">
+        <v>55000</v>
+      </c>
+      <c r="E5" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="38">
+        <v>43069</v>
+      </c>
+      <c r="D6" s="39">
+        <v>80000</v>
+      </c>
+      <c r="E6" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>senior</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="38">
+        <v>43538</v>
+      </c>
+      <c r="D7" s="39">
+        <v>63000</v>
+      </c>
+      <c r="E7" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="38">
+        <v>43956</v>
+      </c>
+      <c r="D8" s="39">
+        <v>54000</v>
+      </c>
+      <c r="E8" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="38">
+        <v>42573</v>
+      </c>
+      <c r="D9" s="39">
+        <v>82000</v>
+      </c>
+      <c r="E9" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>senior</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="38">
+        <v>44457</v>
+      </c>
+      <c r="D10" s="39">
+        <v>61000</v>
+      </c>
+      <c r="E10" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="38">
+        <v>43891</v>
+      </c>
+      <c r="D11" s="39">
+        <v>57000</v>
+      </c>
+      <c r="E11" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="38">
+        <v>43657</v>
+      </c>
+      <c r="D12" s="39">
+        <v>77000</v>
+      </c>
+      <c r="E12" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="38">
+        <v>44205</v>
+      </c>
+      <c r="D13" s="39">
+        <v>64000</v>
+      </c>
+      <c r="E13" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="38">
+        <v>43424</v>
+      </c>
+      <c r="D14" s="39">
+        <v>52000</v>
+      </c>
+      <c r="E14" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="38">
+        <v>42811</v>
+      </c>
+      <c r="D15" s="39">
+        <v>81000</v>
+      </c>
+      <c r="E15" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>senior</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="38">
+        <v>43733</v>
+      </c>
+      <c r="D16" s="39">
+        <v>60000</v>
+      </c>
+      <c r="E16" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="38">
+        <v>43933</v>
+      </c>
+      <c r="D17" s="39">
+        <v>53000</v>
+      </c>
+      <c r="E17" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="38">
+        <v>43401</v>
+      </c>
+      <c r="D18" s="39">
+        <v>83000</v>
+      </c>
+      <c r="E18" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="38">
+        <v>44352</v>
+      </c>
+      <c r="D19" s="39">
+        <v>61500</v>
+      </c>
+      <c r="E19" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="38">
+        <v>43523</v>
+      </c>
+      <c r="D20" s="39">
+        <v>56500</v>
+      </c>
+      <c r="E20" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>baby</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14" thickBot="1">
+      <c r="A21" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="37">
+        <v>43100</v>
+      </c>
+      <c r="D21" s="41">
+        <v>79000</v>
+      </c>
+      <c r="E21" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>senior</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14" thickBot="1"/>
+    <row r="23" spans="1:5" ht="14" thickBot="1">
+      <c r="D23" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="44">
+        <f>COUNTIF(E2:E21, "senior")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14" thickBot="1"/>
+    <row r="25" spans="1:5" ht="14" thickBot="1">
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="44">
+        <f>COUNTIF(A5:A21, "* Adams")</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/_content/john-abbott-college/computerized-systems/lectures/14-finishing-up-excel/excels/2024-10-24-demos.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/14-finishing-up-excel/excels/2024-10-24-demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/14-finishing-up-excel/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989F1FF-6598-6649-8F95-2690D1FC0FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFF5BC-6C67-B44E-90C1-409D334C30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33740" yWindow="-2980" windowWidth="29400" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1676,7 +1676,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/_content/john-abbott-college/computerized-systems/lectures/14-finishing-up-excel/excels/2024-10-24-demos.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/14-finishing-up-excel/excels/2024-10-24-demos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/14-finishing-up-excel/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFF5BC-6C67-B44E-90C1-409D334C30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1268831-E3B8-0A44-8D24-94CA09E00A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33740" yWindow="-2980" windowWidth="29400" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo 1" sheetId="3" r:id="rId1"/>
@@ -1674,14 +1674,14 @@
   </sheetPr>
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
+    <sheetView zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2935,9 +2935,9 @@
   </sheetPr>
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4411,7 +4411,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -4763,9 +4763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3FF0C-782C-1549-8263-1E45CBFA4BD4}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
